--- a/Lists/SBBEMembers.xlsx
+++ b/Lists/SBBEMembers.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,970 +420,1306 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRENO BEZERRA JUST</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>brenojust99@gmail.com</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>BRENO BEZERRA JUST</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>brenojust99@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Evandro Douglas Moore de Lucena</t>
+          <t>Tami Mott</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>douglas.moore@unesp.br</t>
+          <t>tami.mott@icbs.ufal.br</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Bruna Da Rocha Maia</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>Brunadarochamaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Diogo Provete</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>dbprovete@gmail.com</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Evandro Douglas Moore de Lucena</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>douglas.moore@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Vitória Infran De Morais</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>vitoria.infran@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bruna Da Rocha Maia</t>
+          <t>Diogo Provete</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Brunadarochamaia@gmail.com</t>
+          <t>dbprovete@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Renan Maestri</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>renanmaestri@gmail.com</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MARIA THEREZA SCHMITT MESQUITA</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>tecaschmittmesquita@gmail.com</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Renan Maestri</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>renanmaestri@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>MARIA THEREZA SCHMITT MESQUITA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>tecaschmittmesquita@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Fabricius Domingos</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>fabriciusmaia@gmail.com</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Wanderley Dantas dos Santos</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>wdsantos@uem.br</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Juliano Morimoto</t>
+          <t>Rodrigo A. Torres</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>juliano.morimoto@abdn.ac.uk</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fabrício Rodrigues dos Santos</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>fsantos.ufmg@gmail.com</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Fabricius Domingos</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>fabriciusmaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Matheus M. A. Salles</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>matheusm.salles@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Juliano Morimoto</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>juliano.morimoto@abdn.ac.uk</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Fabrício Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>fsantos.ufmg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>guerra@biologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Mariana Mira Vasconcellos</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>marimiravasc@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>Luiza Silva Anselmini</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>miniansel.lu@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Lucas Pereira da Rocha</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>lucasrocha700@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Melissa Bars Closel</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>melissabars@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Breno Michelon Seixas</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>breno.mseixas@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Leonardo Maurici Borges</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>aquitemcaqui@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Rafael Fernandes Barduzzi</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rfbarduzzi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>João Pedro Fujita</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>João Claudio de Sousa Nascimento</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>j.claudionasci@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Nicolle Souza Leto</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>letonicolle@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Leonardo Duarte Santos</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>santosldbio@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Vera Nisaka Solferini</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>veras@unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Julia Nader Acquaviva</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>julianader95@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Paulo Aecyo Francisco da Silva</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>pauloaecyo_1997@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Pedro Paulo Goulart Taucci</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>pedrotaucce@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Lucas Albuquerque dos Santos</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>lucasabqsto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Ana Claudia Lessinger</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>lessinger@ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Pedro L. Godoy</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>pedrolorenagodoy@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Marcelo Duarte</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>mduartes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Rafaela Velloso Missagia</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>rafaelamissagia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Diogo Melo</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>diogro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Ana Paula Assis</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>paulaassis@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>katarine nogueira norbertino</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>katarinenn@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Gabriela Procópio Camacho</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>gpcamacho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Mariana Mira Vasconcellos</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>marimiravasc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Ivan Sergio Nunes Silva Filho</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>ivan.nunes@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jônatas Gomes Santos</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>gomesjonatas21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>Gabriela Procopio Leite</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>gabrielaprocopio3@gmail.com</t>
         </is>

--- a/Lists/SBBEMembers.xlsx
+++ b/Lists/SBBEMembers.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B114"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,36 +480,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
@@ -564,24 +564,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1008,108 +1008,108 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fabricius Domingos</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fabriciusmaia@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Fabricius Domingos</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>fabriciusmaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Matheus M. A. Salles</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>matheusm.salles@hotmail.com</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Juliano Morimoto</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>juliano.morimoto@abdn.ac.uk</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Juliano Morimoto</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>juliano.morimoto@abdn.ac.uk</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Matheus M. A. Salles</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>matheusm.salles@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fabrício Rodrigues dos Santos</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fsantos.ufmg@gmail.com</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
@@ -1128,598 +1128,646 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Fabrício Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>fsantos.ufmg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>guerra@biologia.ufrj.br</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>Comissão Avaliadora</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>guerra@biologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Breno Michelon Seixas</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>breno.mseixas@usp.br</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Leonardo Maurici Borges</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>aquitemcaqui@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Rafael Fernandes Barduzzi</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>rfbarduzzi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>João Pedro Fujita</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Lina Maria Ameida Silva</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>linamas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Paulo Aecyo Francisco da Silva</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>pauloaecyo_1997@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Pedro Paulo Goulart Taucci</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>pedrotaucce@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pedro L. Godoy</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>pedrolorenagodoy@gmail.com</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Ana Claudia Lessinger</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>lessinger@ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Marcelo Duarte</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>mduartes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Weverton dos Santos Azevedo</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>weverton.azevedo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Rafaela Velloso Missagia</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>rafaelamissagia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Diogo Melo</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>diogro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mariana Mira Vasconcellos</t>
+          <t>Ana Paula Assis</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>marimiravasc@gmail.com</t>
+          <t>paulaassis@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>katarine nogueira norbertino</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>katarinenn@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Pedro L. Godoy</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>pedrolorenagodoy@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Jônatas Gomes Santos</t>
+          <t>Gabriela Procópio Camacho</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>gomesjonatas21@gmail.com</t>
+          <t>gpcamacho@usp.br</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>Mariana Mira Vasconcellos</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>marimiravasc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ivan Sergio Nunes Silva Filho</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ivan.nunes@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jônatas Gomes Santos</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>gomesjonatas21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>Gabriela Procopio Leite</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>gabrielaprocopio3@gmail.com</t>
         </is>

--- a/Lists/SBBEMembers.xlsx
+++ b/Lists/SBBEMembers.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B118"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,24 +408,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>Liliane Gallindo Dantas</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>dantas.lg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
@@ -444,180 +444,180 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Felipe Torquato</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>felipe_o_torquato@hotmail.com</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bruno Cajado Almeida Gouveia</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cajadobruno96@gmail.com</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>EDILSON DIVINO DE ARAUJO</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>edaraujoufs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bruna Da Rocha Maia</t>
+          <t>Luciana Aguilar Aleixo</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Brunadarochamaia@gmail.com</t>
+          <t>lucianaaleixo@uesb.edu.br</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Tami Mott</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>tami.mott@icbs.ufal.br</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
@@ -636,1138 +636,1306 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Diogo Provete</t>
+          <t>Bruna Da Rocha Maia</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dbprovete@gmail.com</t>
+          <t>Brunadarochamaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Diogo Provete</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>dbprovete@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>Vitória Infran De Morais</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>vitoria.infran@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>João Pedro Carmo Filgueiras</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>jcarmofilgueiras@gmail.com</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Renan Maestri</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>renanmaestri@gmail.com</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MARIA THEREZA SCHMITT MESQUITA</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>tecaschmittmesquita@gmail.com</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>Renan Maestri</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>renanmaestri@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>MARIA THEREZA SCHMITT MESQUITA</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>tecaschmittmesquita@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Wanderley Dantas dos Santos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>wdsantos@uem.br</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Rodrigo A. Torres</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fernanda Freitas de Oliveira</t>
+          <t>Carolina Martins da Silva</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>fernandaoliveira@ufpr.br</t>
+          <t>carolina.mrtinssilva@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fabricius Domingos</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>fabriciusmaia@gmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Talita Helen Bombardelli Gomig</t>
+          <t>Matheus M. A. Salles</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>talitahbg@ufpr.br</t>
+          <t>matheusm.salles@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Juliano Morimoto</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>juliano.morimoto@abdn.ac.uk</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Matheus M. A. Salles</t>
+          <t>Juliano Morimoto</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>matheusm.salles@hotmail.com</t>
+          <t>juliano.morimoto@abdn.ac.uk</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Fabricius Domingos</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>fabriciusmaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fabrício Rodrigues dos Santos</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>fsantos.ufmg@gmail.com</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Jean Carlo Pedroso de Oliveira</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>pedrosojco@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Fabrício Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>fsantos.ufmg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Comissão Avaliadora</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>angela_portella@hotmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>guerra@biologia.ufrj.br</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>Comissão Avaliadora</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>guerra@biologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lina Maria Ameida Silva</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>linamas@gmail.com</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Breno Michelon Seixas</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>breno.mseixas@usp.br</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Rodrigo Zeni</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>rodrigo-zeni@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Natália dos Santos</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>n.santos97@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Amanda Bueno da Silva</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>amanda.bueno-silva@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Jordana Oliveira</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>jordanainoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Gustavo Ballen</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>gustavo.a.ballen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>João Pedro Fujita</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Rafael Fernandes Barduzzi</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>rfbarduzzi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Leonardo Maurici Borges</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>aquitemcaqui@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Lina Maria Ameida Silva</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>linamas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Pedro Paulo Goulart Taucci</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>pedrotaucce@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pedro L. Godoy</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pedrolorenagodoy@gmail.com</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Mariana Mira Vasconcellos</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>marimiravasc@gmail.com</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Lucas Oliveira Mello</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>lucasmellounicamp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Jônatas Gomes Santos</t>
+          <t>Paulo Aecyo Francisco da Silva</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>gomesjonatas21@gmail.com</t>
+          <t>pauloaecyo_1997@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>Ana Claudia Lessinger</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>lessinger@ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Gabriela Procópio Camacho</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>gpcamacho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>João Marcos Pereira</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>joao2.pereira@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mariana Mira Vasconcellos</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>marimiravasc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ana Paula Assis</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>paulaassis@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Pedro L. Godoy</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>pedrolorenagodoy@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Diogo Melo</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>diogro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Marcelo Duarte</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>mduartes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Rafaela Velloso Missagia</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>rafaelamissagia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>katarine nogueira norbertino</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>katarinenn@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ivan Sergio Nunes Silva Filho</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ivan.nunes@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jônatas Gomes Santos</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>gomesjonatas21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>Gabriela Procopio Leite</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>gabrielaprocopio3@gmail.com</t>
         </is>

--- a/Lists/SBBEMembers.xlsx
+++ b/Lists/SBBEMembers.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,288 +372,288 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Waldir Miron</t>
+          <t>Liliane Gallindo Dantas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>waldirmbf@gmail.com</t>
+          <t>dantas.lg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>George Pacheco</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>george.pacheco@ibv.uio.no</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Renata Pirani</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>renatampirani@gmail.com</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Liliane Gallindo Dantas</t>
+          <t>Martin Lindsey Christoffersen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dantas.lg@gmail.com</t>
+          <t>martinlc.ufpb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>BRENO BEZERRA JUST</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>brenojust99@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BRENO BEZERRA JUST</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>brenojust99@gmail.com</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Felipe Torquato</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>felipe_o_torquato@hotmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EDILSON DIVINO DE ARAUJO</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>edaraujoufs@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bruno Cajado Almeida Gouveia</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cajadobruno96@gmail.com</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>katarine nogueira norbertino</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>katarinenn@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Evandro Douglas Moore de Lucena</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>douglas.moore@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Luciana Aguilar Aleixo</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lucianaaleixo@uesb.edu.br</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Vitória Infran De Morais</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>vitoria.infran@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>Diogo Provete</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>dbprovete@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Evandro Douglas Moore de Lucena</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>douglas.moore@unesp.br</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
@@ -672,348 +672,348 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Diogo Provete</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dbprovete@gmail.com</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Nilda Maria Diniz Rojas</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>niddiniz@unb.br</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Rosana Tidon</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>rotidon@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Pedro Augusto Cardoso Amaral</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>pedro20amaral@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Luiza Flores Gasparetto</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>luiza.gasparetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Renan Maestri</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>renanmaestri@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>João Pedro Carmo Filgueiras</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>jcarmofilgueiras@gmail.com</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>Nelson J.R. Fagundes</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>nelson.fagundes@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>MARIA THEREZA SCHMITT MESQUITA</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>tecaschmittmesquita@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Renan Maestri</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>renanmaestri@gmail.com</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>Natália Skueresky</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>natiisoares@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MARIA THEREZA SCHMITT MESQUITA</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tecaschmittmesquita@gmail.com</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Vera Lucia da Silva Valente Gaiesky</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>vera.gaiesky@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>Suzana Alcantara</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>suzana.alcantara@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>irish@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Carolina Martins da Silva</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>carolina.mrtinssilva@gmail.com</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
@@ -1032,36 +1032,36 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Matheus M. A. Salles</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>matheusm.salles@hotmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>Matheus M. A. Salles</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>matheusm.salles@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Juliano Morimoto</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>juliano.morimoto@abdn.ac.uk</t>
         </is>
       </c>
     </row>
@@ -1080,864 +1080,1584 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Alexandre V. Palaoro</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>alexandre.palaoro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Juliano Morimoto</t>
+          <t>Lupe Alle</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>juliano.morimoto@abdn.ac.uk</t>
+          <t>lupealle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fernanda S. Caron</t>
+          <t>Daniel Pacheco</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fernandadesouzacaron@gmail.com</t>
+          <t>danielpachecobruschi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Fernanda Freitas de Oliveira</t>
+          <t>Claudio Jose Barros De Carvalho</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>fernandaoliveira@ufpr.br</t>
+          <t>cjbcarva@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Fabricius Domingos</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>fabriciusmaia@gmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Talita Helen Bombardelli Gomig</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>talitahbg@ufpr.br</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Fabricius Domingos</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>fabriciusmaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Maria Luiza Petzl-Erler</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>mlperler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Vinicius Delgado da Rocha</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>viniciusdelrocha@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Jean Carlo Pedroso de Oliveira</t>
+          <t>Daniel Meneguello Limeira</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pedrosojco@gmail.com</t>
+          <t>daniel.limeira@ifpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Rodrigo A. Torres</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Wanderley Dantas dos Santos</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>wdsantos@uem.br</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Fabrício Rodrigues dos Santos</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>fsantos.ufmg@gmail.com</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Fabrício Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>fsantos.ufmg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Luciana Resende</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>luresende@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>Jean Carlo Pedroso de Oliveira</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>pedrosojco@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Comissão Avaliadora</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>angela_portella@hotmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>guerra@biologia.ufrj.br</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Gabriel Amaral Bonani Rocha</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>rochagabriel21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>Victor Alberto Tagliacollo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>vatagliacollo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Welignton Clarindo</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>well.clarindo@ufv.br</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>Carlos Frederico Deluqui Gurgel</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>f_gurgel@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>RODRIGO NUNES-DA-FONSECA</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>rodrigo.nunes.da.fonseca@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Rodrigo Zeni</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rodrigo-zeni@outlook.com.br</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Natália dos Santos</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>n.santos97@unesp.br</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Amanda Bueno da Silva</t>
+          <t>Angela Ferreira Portella</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>amanda.bueno-silva@unesp.br</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jordana Oliveira</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>jordanainoliveira@gmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Gustavo Ballen</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>gustavo.a.ballen@gmail.com</t>
+          <t>guerra@biologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Ananda D'Elia</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>anandadelia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Lina Maria Ameida Silva</t>
+          <t>Maria Alves Napolitani</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>linamas@gmail.com</t>
+          <t>napolitanima@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>Natália dos Santos</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>n.santos97@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Amanda Bueno da Silva</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>amanda.bueno-silva@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Kevin Kyoshi Toldo Makiya</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>kevin.kyoshi@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Rodrigo Zeni</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>rodrigo-zeni@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Ana Paula Moraes</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>ap.moraes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Jordana Oliveira</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>jordanainoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Lucas Oliveira Mello</t>
+          <t>Gustavo Ballen</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>lucasmellounicamp@gmail.com</t>
+          <t>gustavo.a.ballen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Lucas Oliveira Mello</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>lucasmellounicamp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>João Marcos Pereira</t>
+          <t>Joana de Moura Gama</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>joao2.pereira@usp.br</t>
+          <t>joanamgama@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Mariana Mira Vasconcellos</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>marimiravasc@gmail.com</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Pedro L. Godoy</t>
+          <t>Ubiratã Ferreira Souza</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>pedrolorenagodoy@gmail.com</t>
+          <t>ubirataferreirasouza@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Maria Ursini Alves de Lima</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>mariaursinialves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Nathan Graia Ferreira</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>n249472@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Pedro Paulo Goulart Taucci</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>pedrotaucce@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Katia Cristina Machado Pellegrino</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>katia.pellegrino@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Jônatas Gomes Santos</t>
+          <t>Breno Michelon Seixas</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>gomesjonatas21@gmail.com</t>
+          <t>breno.mseixas@usp.br</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>Dra. Tiana Kohlsdorf</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>tiana@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Matheus Ganiko Dutra</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ganiko.dutra@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Danillo Cristian Feitosa Dos Santos</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>danilocrisfs@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Millke Jasmine Arminini Morales</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>millke.jasmine@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Katia Milagros Aylas Hernández</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>kmahernandez@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Leonardo Maurici Borges</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>aquitemcaqui@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>João Pedro Fujita</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Rafael Fernandes Barduzzi</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>rfbarduzzi@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Mariana Mira Vasconcellos</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>marimiravasc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Gabriela Procópio Camacho</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>gpcamacho@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Diego Mussolini Matielo</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>diegomussolinimatielo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Eduarda Kjekshus Mansur Haddad</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>eduardakmh@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Cristina Yumi Miyaki</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>cymiyaki@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Eliana Maria Beluzzo Dessen</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>embdesse@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Vinícius José Carvalho Reis</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>carvalhvinicius@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>João Marcos Pereira</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>joao2.pereira@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Sergio Russo Matioli</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>srmatiol@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Dalton de Souza Amorim</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>dsamorim@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Davi Monteiro Nunes</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>davimontnunes@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Ana Paula Assis</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>paulaassis@ib.usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Marco A. C. Varella</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>macvarella@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>João Roberto Fentanes Machado</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>joao.fentanes@unifesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Amanda Kimie Tsuruta</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>amandatsuruta@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Maria Clara Irumé</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>irumemcf@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Pedro L. Godoy</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>pedrolorenagodoy@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Sandra Reinales</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>spreinalesl@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Marcelo Duarte</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>mduartes@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Diogo Melo</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>diogro@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Ivan Sergio Nunes Silva Filho</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>ivan.nunes@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Gustavo Maruyama Mori</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>gustavo.mori@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Ana Claudia Lessinger</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>lessinger@ufscar.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Lucas Marafina Vieira Porto</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>lucasmvporto@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Pedro Nicésio do Amaral</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>pedronamaral@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Rafaela Velloso Missagia</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>rafaelamissagia@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Jônatas Gomes Santos</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>gomesjonatas21@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Anna Theresa De Souza Liberal</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>theresaliberal@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Felipe Camurugi Almeida Guimarães</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>camurugif@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>EDILSON DIVINO DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>edaraujoufs@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Luciana Aguilar Aleixo</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>lucianaaleixo@uesb.edu.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Tami Mott</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>tami.mott@icbs.ufal.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Lilian Gimenes Giugliano</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>liliangiu@unb.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Giovana Lima da Rocha</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>giovanalima2001@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Iderval da Silva Júnior Sobrinho</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>iderval_jr@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Marcelo Jorge Werner</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>marcelo.werner.sc@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Carolina Martins da Silva</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>carolina.mrtinssilva@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fabiano Stefanello</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>stefanellof@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Paulo Henrique Mueller</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>profmueller@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Gabriel Costa Santos</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>gabrielscosta90@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
           <t>Gabriela Procopio Leite</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>gabrielaprocopio3@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Beatriz Mello Carvalho</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>biaumello@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Lina Maria Ameida Silva</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>linamas@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SERGIO NASCIMENTO STAMPAR</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>sergio.stampar@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Paulo Aecyo Francisco da Silva</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>pauloaecyo_1997@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Lucas dos Santos Fazzio Rachid</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>lucas.rachid@unifesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Maria Paula Cruz Schneider</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>mariapaulacruzschneider@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Ignacio Soto</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>zorroyerizo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Waldir Miron</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>waldirmbf@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>George Pacheco</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>george.pacheco@ibv.uio.no</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Renata Pirani</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>renatampirani@gmail.com</t>
         </is>
       </c>
     </row>

--- a/Lists/SBBEMembers.xlsx
+++ b/Lists/SBBEMembers.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -372,2292 +372,2568 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liliane Gallindo Dantas</t>
+          <t>Adrian Antonio Garda</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dantas.lg@gmail.com</t>
+          <t>pseudis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>Alejandra Bonilla Sánchez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>alejabonilla.sanchez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ana Karoline da Nóbrega Nunes Alves</t>
+          <t>Alessandro Marques De Oliveira</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>anakarolinealves1@hotmail.com</t>
+          <t>biolessandro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Martin Lindsey Christoffersen</t>
+          <t>Alexandre V. Palaoro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>martinlc.ufpb@gmail.com</t>
+          <t>alexandre.palaoro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BRENO BEZERRA JUST</t>
+          <t>Aline Pedroso Lorenz</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>brenojust99@gmail.com</t>
+          <t>aline.lorenz@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Felipe Torquato</t>
+          <t>Amanda Bueno da Silva</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>felipe_o_torquato@hotmail.com</t>
+          <t>amanda.bueno-silva@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Adrian Antonio Garda</t>
+          <t>Amanda Kimie Tsuruta</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pseudis@gmail.com</t>
+          <t>amandatsuruta@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>ANA CECILIA HOLLER DEL PRETTE</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>anacecilia.holler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bruno Cajado Almeida Gouveia</t>
+          <t>Ana Carolina Martins Junqueira</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cajadobruno96@gmail.com</t>
+          <t>anacmj@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Ana Karoline da Nóbrega Nunes Alves</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>anakarolinealves1@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Ana Claudia Lessinger</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>lessinger@ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Ana Paula Moraes</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>ap.moraes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>katarine nogueira norbertino</t>
+          <t>Ananda D'Elia</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>anandadelia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Anderson Vilasboa</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>andersonvilasboa@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Evandro Douglas Moore de Lucena</t>
+          <t>André Luís da Silva Zani</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>douglas.moore@unesp.br</t>
+          <t>zani.andre@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>André Yves</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>andreyves7@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Andrea Rita Marrero</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>andrea.marrero@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>aturchetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Angela Ferreira Portella</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>angela_portella@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Angenella Ximena Garrido Soto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>garridoximena2002@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Diogo Provete</t>
+          <t>Arquimedes Paixão de Santana Filho</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>dbprovete@gmail.com</t>
+          <t>santana@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Aline Pedroso Lorenz</t>
+          <t>Beatriz Mello Carvalho</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>aline.lorenz@ufms.br</t>
+          <t>biaumello@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>BRENO BEZERRA JUST</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>brenojust99@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Breno Michelon Seixas</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>breno.mseixas@usp.br</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bruna Da Rocha Maia</t>
+          <t>Bruna Boizonave Andriola</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Brunadarochamaia@gmail.com</t>
+          <t>bruna.andriola@edu.pucrs.br</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Bruna Da Rocha Maia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>Brunadarochamaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nilda Maria Diniz Rojas</t>
+          <t>Bruno Cajado Almeida Gouveia</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>niddiniz@unb.br</t>
+          <t>cajadobruno96@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rosana Tidon</t>
+          <t>Bruno Loreto de Aragão Pedroso</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rotidon@gmail.com</t>
+          <t>bruno.loreto.aragao@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Carla Adriane Royer</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>carladriane@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>carlos.schrago@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedro Augusto Cardoso Amaral</t>
+          <t>Carlos Eduardo Guerra Schrago</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pedro20amaral@gmail.com</t>
+          <t>guerra@biologia.ufrj.br</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>Carolina Martins da Silva</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>carolina.mrtinssilva@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Claudio Jose Barros De Carvalho</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>cjbcarva@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Luiza Flores Gasparetto</t>
+          <t>Cristina Yumi Miyaki</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>luiza.gasparetto@gmail.com</t>
+          <t>cymiyaki@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>Dalton de Souza Amorim</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>dsamorim@usp.br</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>André Luís da Silva Zani</t>
+          <t>Daniel Pacheco</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>zani.andre@yahoo.com.br</t>
+          <t>danielpachecobruschi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Renan Maestri</t>
+          <t>Daniel Meneguello Limeira</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>renanmaestri@gmail.com</t>
+          <t>daniel.limeira@ifpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ANDREIA CARINA TURCHETTO ZOLET</t>
+          <t>Carlos Daniel Rivadeneira Montenegro</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>aturchetto@gmail.com</t>
+          <t>rivadeneiracd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Nelson J.R. Fagundes</t>
+          <t>Danillo Cristian Feitosa Dos Santos</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nelson.fagundes@ufrgs.br</t>
+          <t>danilocrisfs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MARIA THEREZA SCHMITT MESQUITA</t>
+          <t>Davi Monteiro Nunes</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tecaschmittmesquita@gmail.com</t>
+          <t>davimontnunes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>João Pedro Carmo Filgueiras</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>jcarmofilgueiras@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Natália Skueresky</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>natiisoares@hotmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bruna Boizonave Andriola</t>
+          <t>Diego Mussolini Matielo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bruna.andriola@edu.pucrs.br</t>
+          <t>diegomussolinimatielo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Vera Lucia da Silva Valente Gaiesky</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vera.gaiesky@ufrgs.br</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Diogo Provete</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>dbprovete@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alejandra Bonilla Sánchez</t>
+          <t>Diogo Melo</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>alejabonilla.sanchez@gmail.com</t>
+          <t>diogro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Suzana Alcantara</t>
+          <t>Evandro Douglas Moore de Lucena</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>suzana.alcantara@ufsc.br</t>
+          <t>douglas.moore@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Marco A. C. Varella</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>macvarella@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Andrea Rita Marrero</t>
+          <t>Lina Maria Ameida Silva</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>andrea.marrero@ufsc.br</t>
+          <t>linamas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Fernanda S. Caron</t>
+          <t>EDILSON DIVINO DE ARAUJO</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>fernandadesouzacaron@gmail.com</t>
+          <t>edaraujoufs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Iris Hass</t>
+          <t>Eduarda Kjekshus Mansur Haddad</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>irish@ufpr.br</t>
+          <t>eduardakmh@usp.br</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>Eliana Maria Beluzzo Dessen</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>embdesse@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>Érica Ribeiro</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>ericaribeiro@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Matheus M. A. Salles</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>matheusm.salles@hotmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Juliano Morimoto</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>juliano.morimoto@abdn.ac.uk</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Fabricio Santos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>fabricio-santos@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Alexandre V. Palaoro</t>
+          <t>Fabrício Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>alexandre.palaoro@gmail.com</t>
+          <t>fsantos.ufmg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Lupe Alle</t>
+          <t>Fabricius Maia Chaves Bicalho Domingos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>lupealle@gmail.com</t>
+          <t>fabricius.domingos@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Daniel Pacheco</t>
+          <t>Fabricius Domingos</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>danielpachecobruschi@gmail.com</t>
+          <t>fabriciusmaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Claudio Jose Barros De Carvalho</t>
+          <t>Federico David Brown Almeida</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cjbcarva@ufpr.br</t>
+          <t>fdbrown@usp.br</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Felipe Medeiros Ceccagno</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>felipe.ceccagno@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Felipe Camurugi Almeida Guimarães</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>camurugif@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Fabricius Domingos</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>fabriciusmaia@gmail.com</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Maria Luiza Petzl-Erler</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>mlperler@gmail.com</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Talita Helen Bombardelli Gomig</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>talitahbg@ufpr.br</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Arquimedes Paixão de Santana Filho</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>santana@ufpr.br</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fernanda Freitas de Oliveira</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fernandaoliveira@ufpr.br</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vinicius Delgado da Rocha</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>viniciusdelrocha@gmail.com</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Daniel Meneguello Limeira</t>
+          <t>Carlos Frederico Deluqui Gurgel</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>daniel.limeira@ifpr.edu.br</t>
+          <t>f_gurgel@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Rodrigo A. Torres</t>
+          <t>Gabriela Procópio Camacho</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>gpcamacho@usp.br</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Gabriel Amaral Bonani Rocha</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>rochagabriel21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ANA CECILIA HOLLER DEL PRETTE</t>
+          <t>Gabriela Procopio Leite</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>anacecilia.holler@gmail.com</t>
+          <t>gabrielaprocopio3@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Fabrício Rodrigues dos Santos</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>fsantos.ufmg@gmail.com</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Luciana Resende</t>
+          <t>George Pacheco</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>luresende@gmail.com</t>
+          <t>george.pacheco@ibv.uio.no</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Giovana Lima da Rocha</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>giovanalima2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Jean Carlo Pedroso de Oliveira</t>
+          <t>Gustavo Ballen</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>pedrosojco@gmail.com</t>
+          <t>gustavo.a.ballen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Gustavo Maruyama Mori</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>gustavo.mori@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Alessandro Marques De Oliveira</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>biolessandro@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>André Yves</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>andreyves7@gmail.com</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>Iago Lucas Viana da Silva</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>iago.lucas@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Gabriel Amaral Bonani Rocha</t>
+          <t>Ignacio Soto</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>rochagabriel21@gmail.com</t>
+          <t>zorroyerizo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>irishassm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Victor Alberto Tagliacollo</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>vatagliacollo@gmail.com</t>
+          <t>irish@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Carlos Frederico Deluqui Gurgel</t>
+          <t>Ivan Sergio Nunes Silva Filho</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>f_gurgel@yahoo.com</t>
+          <t>ivan.nunes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>RODRIGO NUNES-DA-FONSECA</t>
+          <t>Jean Carlo Pedroso de Oliveira</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>rodrigo.nunes.da.fonseca@gmail.com</t>
+          <t>pedrosojco@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Jennyfer Pontes Carvalho Pietsch</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>jennycarvalho131@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Joana de Moura Gama</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>joanamgama@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Bruno Loreto de Aragão Pedroso</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>bruno.loreto.aragao@hotmail.com</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>João Marcos Pereira</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>joao2.pereira@usp.br</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Ana Carolina Martins Junqueira</t>
+          <t>João Roberto Fentanes Machado</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>anacmj@gmail.com</t>
+          <t>joao.fentanes@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Angela Ferreira Portella</t>
+          <t>João Pedro Fujita</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>angela_portella@hotmail.com</t>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Jônatas Gomes Santos</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>gomesjonatas21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Guerra Schrago</t>
+          <t>Jordana Oliveira</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>guerra@biologia.ufrj.br</t>
+          <t>jordanainoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ananda D'Elia</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>anandadelia@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Maria Alves Napolitani</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>napolitanima@gmail.com</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Natália dos Santos</t>
+          <t>Juliano Morimoto</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n.santos97@unesp.br</t>
+          <t>juliano.morimoto@abdn.ac.uk</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Amanda Bueno da Silva</t>
+          <t>Junior Chuctaya</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>amanda.bueno-silva@unesp.br</t>
+          <t>junior.chuctaya@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Kevin Kyoshi Toldo Makiya</t>
+          <t>Katarine Nogueira Norbertino</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>kevin.kyoshi@unesp.br</t>
+          <t>katarinenn@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Rodrigo Zeni</t>
+          <t>Katia Milagros Aylas Hernández</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>rodrigo-zeni@outlook.com.br</t>
+          <t>kmahernandez@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ana Paula Moraes</t>
+          <t>Katia Cristina Machado Pellegrino</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ap.moraes@unesp.br</t>
+          <t>katia.pellegrino@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Jordana Oliveira</t>
+          <t>Kevin Kyoshi Toldo Makiya</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>jordanainoliveira@gmail.com</t>
+          <t>kevin.kyoshi@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Gustavo Ballen</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>gustavo.a.ballen@gmail.com</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Lucas Oliveira Mello</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>lucasmellounicamp@gmail.com</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Laura Valotta Camargo</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>avalottalaura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Joana de Moura Gama</t>
+          <t>Leonardo Maurici Borges</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>joanamgama@gmail.com</t>
+          <t>aquitemcaqui@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Leonardo Augusto Luvison Araujo</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>luvison.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Ubiratã Ferreira Souza</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ubirataferreirasouza@gmail.com</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Maria Ursini Alves de Lima</t>
+          <t>Liliane Gallindo Dantas</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>mariaursinialves@gmail.com</t>
+          <t>dantas.lg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Nathan Graia Ferreira</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>n249472@dac.unicamp.br</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Lucas Duarte Martinez</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>lucas.martinez@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Lucas Oliveira Mello</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>lucasmellounicamp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Katia Cristina Machado Pellegrino</t>
+          <t>Lucas Marafina Vieira Porto</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>katia.pellegrino@unifesp.br</t>
+          <t>lucasmvporto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Lucas dos Santos Fazzio Rachid</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>lucas.rachid@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Breno Michelon Seixas</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>breno.mseixas@usp.br</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Dra. Tiana Kohlsdorf</t>
+          <t>Lucca Azevedo Fanti</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tiana@usp.br</t>
+          <t>luccafanti2002@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Matheus Ganiko Dutra</t>
+          <t>Luciana Aguilar Aleixo</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ganiko.dutra@usp.br</t>
+          <t>lucianaaleixo@uesb.edu.br</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Danillo Cristian Feitosa Dos Santos</t>
+          <t>Luciana Resende</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>danilocrisfs@gmail.com</t>
+          <t>luresende@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Millke Jasmine Arminini Morales</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>millke.jasmine@gmail.com</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Luiza Flores Gasparetto</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>luiza.gasparetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Katia Milagros Aylas Hernández</t>
+          <t>Lupe Alle</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>kmahernandez@estudante.ufscar.br</t>
+          <t>lupealle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Marcelo Duarte</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>mduartes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>Marcelo Pires dos Santos Junior</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>marcelopiresjunior@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mariana Mira Vasconcellos</t>
+          <t>Marcelo Jorge Werner</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>marimiravasc@gmail.com</t>
+          <t>marcelo.werner.sc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Diego Mussolini Matielo</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>diegomussolinimatielo@gmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Eduarda Kjekshus Mansur Haddad</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>eduardakmh@usp.br</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Cristina Yumi Miyaki</t>
+          <t>Maria Clara Irumé</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>cymiyaki@ib.usp.br</t>
+          <t>irumemcf@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Eliana Maria Beluzzo Dessen</t>
+          <t>Maria Luiza Petzl-Erler</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>embdesse@ib.usp.br</t>
+          <t>mlperler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Vinícius José Carvalho Reis</t>
+          <t>Maria Alves Napolitani</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>carvalhvinicius@gmail.com</t>
+          <t>napolitanima@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>João Marcos Pereira</t>
+          <t>Maria Paula Cruz Schneider</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>joao2.pereira@usp.br</t>
+          <t>mariapaulacruzschneider@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sergio Russo Matioli</t>
+          <t>MARIA THEREZA SCHMITT MESQUITA</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>srmatiol@ib.usp.br</t>
+          <t>tecaschmittmesquita@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Dalton de Souza Amorim</t>
+          <t>Maria Ursini Alves de Lima</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>dsamorim@usp.br</t>
+          <t>mariaursinialves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Davi Monteiro Nunes</t>
+          <t>Mariana Mira Vasconcellos</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>davimontnunes@gmail.com</t>
+          <t>marimiravasc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Marco A. C. Varella</t>
+          <t>Mario Jardim Cupello</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>macvarella@gmail.com</t>
+          <t>mcupello@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>João Roberto Fentanes Machado</t>
+          <t>Martin Lindsey Christoffersen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>joao.fentanes@unifesp.br</t>
+          <t>martinlc.ufpb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Amanda Kimie Tsuruta</t>
+          <t>Matheus M. A. Salles</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>amandatsuruta@gmail.com</t>
+          <t>matheusm.salles@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Maria Clara Irumé</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>irumemcf@gmail.com</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Pedro L. Godoy</t>
+          <t>Matheus Ganiko Dutra</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>pedrolorenagodoy@gmail.com</t>
+          <t>ganiko.dutra@usp.br</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Sandra Reinales</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>spreinalesl@gmail.com</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Weverton dos Santos Azevedo</t>
+          <t>Millke Jasmine Arminini Morales</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>weverton.azevedo@hotmail.com</t>
+          <t>millke.jasmine@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Natália dos Santos</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>n.santos97@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Gustavo Maruyama Mori</t>
+          <t>Natália Skueresky</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>gustavo.mori@unesp.br</t>
+          <t>natiisoares@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ana Claudia Lessinger</t>
+          <t>Nathan Graia Ferreira</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>lessinger@ufscar.br</t>
+          <t>n249472@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Lucas Marafina Vieira Porto</t>
+          <t>Nelson J.R. Fagundes</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>lucasmvporto@gmail.com</t>
+          <t>nelson.fagundes@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Pedro Nicésio do Amaral</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>pedronamaral@usp.br</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Nilda Maria Diniz Rojas</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>niddiniz@unb.br</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Jônatas Gomes Santos</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>gomesjonatas21@gmail.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Anna Theresa De Souza Liberal</t>
+          <t>Ana Paula Assis</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>theresaliberal@gmail.com</t>
+          <t>paulaassis@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Felipe Camurugi Almeida Guimarães</t>
+          <t>Paulo Aecyo Francisco da Silva</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>camurugif@gmail.com</t>
+          <t>pauloaecyo_1997@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>EDILSON DIVINO DE ARAUJO</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>edaraujoufs@gmail.com</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Luciana Aguilar Aleixo</t>
+          <t>Pedro Augusto Cardoso Amaral</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>lucianaaleixo@uesb.edu.br</t>
+          <t>pedro20amaral@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Pedro Nicésio do Amaral</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>pedronamaral@usp.br</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Pedro L. Godoy</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>pedrolorenagodoy@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Giovana Lima da Rocha</t>
+          <t>Pedro Paulo Goulart Taucci</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>giovanalima2001@gmail.com</t>
+          <t>pedrotaucce@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Rafael Fernandes Barduzzi</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>rfbarduzzi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Marcelo Jorge Werner</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>marcelo.werner.sc@gmail.com</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Carolina Martins da Silva</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>carolina.mrtinssilva@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Rafaela Velloso Missagia</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>rafaelamissagia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Renan Maestri</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>renanmaestri@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Gabriela Procopio Leite</t>
+          <t>Renata Pirani</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>gabrielaprocopio3@gmail.com</t>
+          <t>renatampirani@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Beatriz Mello Carvalho</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>biaumello@gmail.com</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Lina Maria Ameida Silva</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>linamas@gmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SERGIO NASCIMENTO STAMPAR</t>
+          <t>Rodrigo Augusto Torres</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>sergio.stampar@unesp.br</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lucas dos Santos Fazzio Rachid</t>
+          <t>RODRIGO NUNES-DA-FONSECA</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>lucas.rachid@unifesp.br</t>
+          <t>rodrigo.nunes.da.fonseca@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Maria Paula Cruz Schneider</t>
+          <t>Rodrigo Zeni</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>mariapaulacruzschneider@gmail.com</t>
+          <t>rodrigo-zeni@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Ignacio Soto</t>
+          <t>Rosana Tidon</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>zorroyerizo@gmail.com</t>
+          <t>rotidon@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Waldir Miron</t>
+          <t>Sandra Reinales</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>waldirmbf@gmail.com</t>
+          <t>spreinalesl@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>George Pacheco</t>
+          <t>Sergio Russo Matioli</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>george.pacheco@ibv.uio.no</t>
+          <t>srmatiol@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Renata Pirani</t>
+          <t>SERGIO NASCIMENTO STAMPAR</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>renatampirani@gmail.com</t>
+          <t>sergio.stampar@unesp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Suzana Alcantara</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>suzana.alcantara@ufsc.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Talita Helen Bombardelli Gomig</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>talitahbg@ufpr.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Tami Mott</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>tami.mott@icbs.ufal.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Thais Helena Condez</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>thacondez@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Thaís Barreto Guedes</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>thaisbguedes@yahoo.com.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Thales Henrique Dias Leandro</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>thaleshdias@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Thannya Nascimento Soares</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>tnsoares@ufg.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Anna Theresa De Souza Liberal</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>theresaliberal@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Thiago Jose de Carvalho Andre</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>thiago.andre@unb.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Thieres Tayroni Martins da Silva</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>thierestayroni@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Tiago Bosisio Quental</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>tbquental@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Dra. Tiana Kohlsdorf</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>tiana@usp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Ubiratã Ferreira Souza</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>ubirataferreirasouza@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Vera Nisaka Solferini</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>veras@unicamp.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Vera Lucia da Silva Valente Gaiesky</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>vera.gaiesky@ufrgs.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Victor Alberto Tagliacollo</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>vatagliacollo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Vinícius José Carvalho Reis</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>carvalhvinicius@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Vinicius Delgado da Rocha</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>viniciusdelrocha@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Vitória Infran De Morais</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>vitoria.infran@ufms.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Waldir Miron</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>waldirmbf@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Wanderley Dantas dos Santos</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>wdsantos@uem.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Welignton Clarindo</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>well.clarindo@ufv.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Weverton dos Santos Azevedo</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>weverton.azevedo@hotmail.com</t>
         </is>
       </c>
     </row>

--- a/Lists/SBBEMembers.xlsx
+++ b/Lists/SBBEMembers.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,2182 +756,2278 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Claudia Augusta de Moraes Russo</t>
+          <t>Clarisse Palma da Silva</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>claurusso@hotmail.com</t>
+          <t>clarissepalma@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Claudio Jose Barros De Carvalho</t>
+          <t>Claudia Augusta de Moraes Russo</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cjbcarva@ufpr.br</t>
+          <t>claurusso@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Constância F. J. Ayres</t>
+          <t>Claudio Jose Barros De Carvalho</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>constancia.ayres@fiocruz.br</t>
+          <t>cjbcarva@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cristina Yumi Miyaki</t>
+          <t>Constância F. J. Ayres</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cymiyaki@ib.usp.br</t>
+          <t>constancia.ayres@fiocruz.br</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Dalton de Souza Amorim</t>
+          <t>Cristina Yumi Miyaki</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dsamorim@usp.br</t>
+          <t>cymiyaki@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Daniel Pacheco</t>
+          <t>Dalton de Souza Amorim</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>danielpachecobruschi@gmail.com</t>
+          <t>dsamorim@usp.br</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Daniel Meneguello Limeira</t>
+          <t>Daniel Pacheco</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>daniel.limeira@ifpr.edu.br</t>
+          <t>danielpachecobruschi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Carlos Daniel Rivadeneira Montenegro</t>
+          <t>Daniel Meneguello Limeira</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rivadeneiracd@gmail.com</t>
+          <t>daniel.limeira@ifpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Danillo Cristian Feitosa Dos Santos</t>
+          <t>Carlos Daniel Rivadeneira Montenegro</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>danilocrisfs@gmail.com</t>
+          <t>rivadeneiracd@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Davi Monteiro Nunes</t>
+          <t>Danillo Cristian Feitosa Dos Santos</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>davimontnunes@gmail.com</t>
+          <t>danilocrisfs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Dener Soares Da Costa Junior</t>
+          <t>Davi Monteiro Nunes</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>denerdacosta12@gmail.com</t>
+          <t>davimontnunes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
+          <t>Dener Soares Da Costa Junior</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>desirre.petters@gmail.com</t>
+          <t>denerdacosta12@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Diego Mussolini Matielo</t>
+          <t>Desirrê Alexia Lourenço Petters Vandresen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>diegomussolinimatielo@gmail.com</t>
+          <t>desirre.petters@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Diego José Santana Silva</t>
+          <t>Diego Mussolini Matielo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>jose.santana@ufms.br</t>
+          <t>diegomussolinimatielo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Diogo Provete</t>
+          <t>Diego José Santana Silva</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>dbprovete@gmail.com</t>
+          <t>jose.santana@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Diogo Melo</t>
+          <t>Diogo Provete</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>diogro@gmail.com</t>
+          <t>dbprovete@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Evandro Douglas Moore de Lucena</t>
+          <t>Diogo Melo</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>douglas.moore@unesp.br</t>
+          <t>diogro@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Marco A. C. Varella</t>
+          <t>Evandro Douglas Moore de Lucena</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>macvarella@gmail.com</t>
+          <t>douglas.moore@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lina Maria Ameida Silva</t>
+          <t>Marco A. C. Varella</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>linamas@gmail.com</t>
+          <t>macvarella@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EDILSON DIVINO DE ARAUJO</t>
+          <t>Lina Maria Ameida Silva</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>edaraujoufs@gmail.com</t>
+          <t>linamas@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Eduarda Kjekshus Mansur Haddad</t>
+          <t>EDILSON DIVINO DE ARAUJO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>eduardakmh@usp.br</t>
+          <t>edaraujoufs@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Eliana Maria Beluzzo Dessen</t>
+          <t>Eduarda Kjekshus Mansur Haddad</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>embdesse@ib.usp.br</t>
+          <t>eduardakmh@usp.br</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Emilio de Lanna Neto</t>
+          <t>Eliana Maria Beluzzo Dessen</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>emiliolanna@gmail.com</t>
+          <t>embdesse@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Érica Ribeiro</t>
+          <t>Emilio de Lanna Neto</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ericaribeiro@ufpr.br</t>
+          <t>emiliolanna@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Esthefany Ovando De Mello</t>
+          <t>Érica Ribeiro</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>esthefany0ovando@gmail.com</t>
+          <t>ericaribeiro@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Fabiano Stefanello</t>
+          <t>Esthefany Ovando De Mello</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>stefanellof@gmail.com</t>
+          <t>esthefany0ovando@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Fabricio Santos</t>
+          <t>Fabiano Stefanello</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>fabricio-santos@ufmg.br</t>
+          <t>stefanellof@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fabrício Rodrigues dos Santos</t>
+          <t>Fabricio Santos</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>fsantos.ufmg@gmail.com</t>
+          <t>fabricio-santos@ufmg.br</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Fabricius Maia Chaves Bicalho Domingos</t>
+          <t>Fabrício Rodrigues dos Santos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>fabricius.domingos@ufpr.br</t>
+          <t>fsantos.ufmg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Fabricius Domingos</t>
+          <t>Fabricius Maia Chaves Bicalho Domingos</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>fabriciusmaia@gmail.com</t>
+          <t>fabricius.domingos@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Federico David Brown Almeida</t>
+          <t>Fabricius Domingos</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>fdbrown@usp.br</t>
+          <t>fabriciusmaia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Felipe Medeiros Ceccagno</t>
+          <t>Federico David Brown Almeida</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>felipe.ceccagno@hotmail.com</t>
+          <t>fdbrown@usp.br</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Felipe Camurugi Almeida Guimarães</t>
+          <t>Felipe Medeiros Ceccagno</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>camurugif@gmail.com</t>
+          <t>felipe.ceccagno@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Felipe Torquato</t>
+          <t>Felipe Camurugi Almeida Guimarães</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>felipe_o_torquato@hotmail.com</t>
+          <t>camurugif@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Felipe Torquato</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>fernanda.porifera@gmail.com</t>
+          <t>felipe_o_torquato@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Fernanda Freitas de Oliveira</t>
+          <t>Fernanda Cavalcanti</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>fernandaoliveira@ufpr.br</t>
+          <t>fernanda.porifera@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Fernanda S. Caron</t>
+          <t>Fernanda Freitas de Oliveira</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>fernandadesouzacaron@gmail.com</t>
+          <t>fernandaoliveira@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fernando Munir Lima Calarge</t>
+          <t>Fernanda S. Caron</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>fernando.calarge@gmail.com</t>
+          <t>fernandadesouzacaron@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Fernando Pacheco Rodrigues</t>
+          <t>Fernando Munir Lima Calarge</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>fprodrigues@unb.br</t>
+          <t>fernando.calarge@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Carlos Frederico Deluqui Gurgel</t>
+          <t>Fernando Pacheco Rodrigues</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>f_gurgel@yahoo.com</t>
+          <t>fprodrigues@unb.br</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Gabriela Procópio Camacho</t>
+          <t>Carlos Frederico Deluqui Gurgel</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>gpcamacho@usp.br</t>
+          <t>f_gurgel@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gabriel Amaral Bonani Rocha</t>
+          <t>Frederico Henning</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>rochagabriel21@gmail.com</t>
+          <t>fredhenning80@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gabriel Costa Santos</t>
+          <t>Gabriela Procópio Camacho</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>gabrielscosta90@gmail.com</t>
+          <t>gpcamacho@usp.br</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gabriela Ferreira Mota</t>
+          <t>Gabriel Amaral Bonani Rocha</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>motafgabriela@gmail.com</t>
+          <t>rochagabriel21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Gabriela Procopio Leite</t>
+          <t>Gabriel Costa Santos</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>gabrielaprocopio3@gmail.com</t>
+          <t>gabrielscosta90@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Gabriéli Luiza Steffens Knapp</t>
+          <t>Gabriela Ferreira Mota</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>gabrieli_steffens-pzo@hotmail.com</t>
+          <t>motafgabriela@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Gecele Matos Paggi</t>
+          <t>Gabriela Procopio Leite</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>gecele.paggi@ufms.br</t>
+          <t>gabrielaprocopio3@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>George Pacheco</t>
+          <t>Gabriéli Luiza Steffens Knapp</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>george.pacheco@ibv.uio.no</t>
+          <t>gabrieli_steffens-pzo@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Giovana Lima da Rocha</t>
+          <t>Gecele Matos Paggi</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>giovanalima2001@gmail.com</t>
+          <t>gecele.paggi@ufms.br</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gustavo Ballen</t>
+          <t>George Pacheco</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>gustavo.a.ballen@gmail.com</t>
+          <t>george.pacheco@ibv.uio.no</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gustavo Maruyama Mori</t>
+          <t>Giovana Lima da Rocha</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>gustavo.mori@unesp.br</t>
+          <t>giovanalima2001@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Henrique Batalha-Filho</t>
+          <t>Gustavo Ballen</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>henrique.batalha@outlook.com</t>
+          <t>gustavo.a.ballen@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Henrique Caldeira Costa</t>
+          <t>Gustavo Maruyama Mori</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ccostah@gmail.com</t>
+          <t>gustavo.mori@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Henry Paul Granger Neto</t>
+          <t>Henrique Batalha-Filho</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>hp.granger98@gmail.com</t>
+          <t>henrique.batalha@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Iago Lucas Viana da Silva</t>
+          <t>Henrique Caldeira Costa</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>iago.lucas@ufpr.br</t>
+          <t>ccostah@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Iderval da Silva Júnior Sobrinho</t>
+          <t>Henry Paul Granger Neto</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>iderval_jr@yahoo.com</t>
+          <t>hp.granger98@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ignacio Soto</t>
+          <t>Iago Lucas Viana da Silva</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>zorroyerizo@gmail.com</t>
+          <t>iago.lucas@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Iris Hass</t>
+          <t>Iderval da Silva Júnior Sobrinho</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>irishassm@gmail.com</t>
+          <t>iderval_jr@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Iris Hass</t>
+          <t>Ignacio Soto</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>irish@ufpr.br</t>
+          <t>zorroyerizo@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Isaac Rafael Freitas Borges</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>isaacborges966@gmail.com</t>
+          <t>irishassm@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ivan Sergio Nunes Silva Filho</t>
+          <t>Iris Hass</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ivan.nunes@unesp.br</t>
+          <t>irish@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Jean Carlo Pedroso de Oliveira</t>
+          <t>Isaac Rafael Freitas Borges</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>pedrosojco@gmail.com</t>
+          <t>isaacborges966@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Jennyfer Pontes Carvalho Pietsch</t>
+          <t>Ivan Sergio Nunes Silva Filho</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>jennycarvalho131@gmail.com</t>
+          <t>ivan.nunes@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Joana de Moura Gama</t>
+          <t>Jean Carlo Pedroso de Oliveira</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>joanamgama@gmail.com</t>
+          <t>pedrosojco@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>João Claudio de Sousa Nascimento</t>
+          <t>Jennyfer Pontes Carvalho Pietsch</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>j.claudionasci@gmail.com</t>
+          <t>jennycarvalho131@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>João Marcos Pereira</t>
+          <t>Joana de Moura Gama</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>joao2.pereira@usp.br</t>
+          <t>joanamgama@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>João Roberto Fentanes Machado</t>
+          <t>João Claudio de Sousa Nascimento</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>joao.fentanes@unifesp.br</t>
+          <t>j.claudionasci@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>João Pedro Carmo Filgueiras</t>
+          <t>João Marcos Pereira</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>jcarmofilgueiras@gmail.com</t>
+          <t>joao2.pereira@usp.br</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>João Pedro Fujita</t>
+          <t>João Roberto Fentanes Machado</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>joaopedrofujita@estudante.ufscar.br</t>
+          <t>joao.fentanes@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jônatas Gomes Santos</t>
+          <t>João Pedro Carmo Filgueiras</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>gomesjonatas21@gmail.com</t>
+          <t>jcarmofilgueiras@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jordana Oliveira</t>
+          <t>João Pedro Fujita</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>jordanainoliveira@gmail.com</t>
+          <t>joaopedrofujita@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Jose Ricardo Miras Mermudes</t>
+          <t>Jônatas Gomes Santos</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>jrmermudes@gmail.com</t>
+          <t>gomesjonatas21@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Júlia de Lima Carvalho</t>
+          <t>Jordana Oliveira</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>julialima.carvalho18@gmail.com</t>
+          <t>jordanainoliveira@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Julia Nader Acquaviva</t>
+          <t>Jose Ricardo Miras Mermudes</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>julianader95@gmail.com</t>
+          <t>jrmermudes@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Juliana Cordeiro</t>
+          <t>Júlia de Lima Carvalho</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>jlncdr@gmail.com</t>
+          <t>julialima.carvalho18@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Juliana Rosa Matias Ciccheto</t>
+          <t>Julia Nader Acquaviva</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>cicchetoju@gmail.com</t>
+          <t>julianader95@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Juliano Morimoto</t>
+          <t>Juliana Cordeiro</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>juliano.morimoto@abdn.ac.uk</t>
+          <t>jlncdr@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Junior Chuctaya</t>
+          <t>Juliana Rosa Matias Ciccheto</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>junior.chuctaya@gmail.com</t>
+          <t>cicchetoju@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Katarine Nogueira Norbertino</t>
+          <t>Juliano Morimoto</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>katarinenn@outlook.com</t>
+          <t>juliano.morimoto@abdn.ac.uk</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Katia Milagros Aylas Hernández</t>
+          <t>Junior Chuctaya</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>kmahernandez@estudante.ufscar.br</t>
+          <t>junior.chuctaya@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Katia Cristina Machado Pellegrino</t>
+          <t>Katarine Nogueira Norbertino</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>katia.pellegrino@unifesp.br</t>
+          <t>katarinenn@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kevin Kyoshi Toldo Makiya</t>
+          <t>Katia Milagros Aylas Hernández</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>kevin.kyoshi@unesp.br</t>
+          <t>kmahernandez@estudante.ufscar.br</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Akyel Kiffiner de França Mendonça</t>
+          <t>Katia Cristina Machado Pellegrino</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>a.kiffiner@gmail.com</t>
+          <t>katia.pellegrino@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Larissa Bortoli de Souza</t>
+          <t>Kevin Kyoshi Toldo Makiya</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bortoli.larissa16@gmail.com</t>
+          <t>kevin.kyoshi@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Laura Valotta Camargo</t>
+          <t>Akyel Kiffiner de França Mendonça</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>avalottalaura@gmail.com</t>
+          <t>a.kiffiner@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Laysla Bomfim Adam</t>
+          <t>Larissa Bortoli de Souza</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>laysla.adam@gmail.com</t>
+          <t>bortoli.larissa16@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Leonardo Maurici Borges</t>
+          <t>Laura Valotta Camargo</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>aquitemcaqui@gmail.com</t>
+          <t>avalottalaura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Leonardo Augusto Luvison Araujo</t>
+          <t>Laysla Bomfim Adam</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>luvison.bio@gmail.com</t>
+          <t>laysla.adam@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Leonardo Duarte Santos</t>
+          <t>Leonardo Maurici Borges</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>santosldbio@gmail.com</t>
+          <t>aquitemcaqui@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Lilian Gimenes Giugliano</t>
+          <t>Leonardo Augusto Luvison Araujo</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>liliangiu@unb.br</t>
+          <t>luvison.bio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Liliane Gallindo Dantas</t>
+          <t>Leonardo Duarte Santos</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>dantas.lg@gmail.com</t>
+          <t>santosldbio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lucas Albuquerque dos Santos</t>
+          <t>Lilian Gimenes Giugliano</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>lucasabqsto@gmail.com</t>
+          <t>liliangiu@unb.br</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Lucas Bleicher</t>
+          <t>Liliane Gallindo Dantas</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>lbleicher@gmail.com</t>
+          <t>dantas.lg@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Lucas Duarte Martinez</t>
+          <t>Lucas Albuquerque dos Santos</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>lucas.martinez@unesp.br</t>
+          <t>lucasabqsto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Lucas Oliveira Mello</t>
+          <t>Lucas Bleicher</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>lucasmellounicamp@gmail.com</t>
+          <t>lbleicher@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Lucas Marafina Vieira Porto</t>
+          <t>Lucas Concolato</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>lucasmvporto@gmail.com</t>
+          <t>lucas.concolato@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lucas dos Santos Fazzio Rachid</t>
+          <t>Lucas Duarte Martinez</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>lucas.rachid@unifesp.br</t>
+          <t>lucas.martinez@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lucas Pereira da Rocha</t>
+          <t>Lucas Oliveira Mello</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>lucasrocha700@gmail.com</t>
+          <t>lucasmellounicamp@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lucca Azevedo Fanti</t>
+          <t>Lucas Marafina Vieira Porto</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>luccafanti2002@outlook.com</t>
+          <t>lucasmvporto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Luciana Aguilar Aleixo</t>
+          <t>Lucas dos Santos Fazzio Rachid</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>lucianaaleixo@uesb.edu.br</t>
+          <t>lucas.rachid@unifesp.br</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Luciana Resende</t>
+          <t>Lucas Pereira da Rocha</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>luresende@gmail.com</t>
+          <t>lucasrocha700@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Luiza Silva Anselmini</t>
+          <t>Lucca Azevedo Fanti</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>miniansel.lu@gmail.com</t>
+          <t>luccafanti2002@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Luiza Flores Gasparetto</t>
+          <t>UCIANA AGUILAR ALEIXO</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>luiza.gasparetto@gmail.com</t>
+          <t>lucianaaleixo@uesb.edu.br</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Lupe Alle</t>
+          <t>Luciana Resende</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>lupealle@gmail.com</t>
+          <t>luresende@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Marcelo Duarte</t>
+          <t>Luísa Ferreira Gomes</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>mduartes@usp.br</t>
+          <t>luisaferreiragomes17@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Marcelo Pires dos Santos Junior</t>
+          <t>Luiza Silva Anselmini</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>marcelopiresjunior@gmail.com</t>
+          <t>miniansel.lu@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Marcelo Henrique Schwade</t>
+          <t>Luiza Flores Gasparetto</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>marceloh.schwade@gmail.com</t>
+          <t>luiza.gasparetto@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Marcelo Jorge Werner</t>
+          <t>Lupe Alle</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>marcelo.werner.sc@gmail.com</t>
+          <t>lupealle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Marcia Holsbach Beltrame</t>
+          <t>Marcelo Duarte</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>marcia.beltrame@ufrgs.br</t>
+          <t>mduartes@usp.br</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Marco Silva Gottschalk</t>
+          <t>Marcelo Pires dos Santos Junior</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>marco.gottschalk@yahoo.com</t>
+          <t>marcelopiresjunior@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Marcos Barbeitos</t>
+          <t>Marcelo Henrique Schwade</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>msbarbeitos@gmail.com</t>
+          <t>marceloh.schwade@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Maria Clara Irumé</t>
+          <t>Marcelo Vallinoto</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>irumemcf@gmail.com</t>
+          <t>mvallino@ufpa.br</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Maria Luiza Petzl-Erler</t>
+          <t>Marcelo Jorge Werner</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>mlperler@gmail.com</t>
+          <t>marcelo.werner.sc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Maria Alves Napolitani</t>
+          <t>Marcia Holsbach Beltrame</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>napolitanima@gmail.com</t>
+          <t>marcia.beltrame@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Maria Paula Cruz Schneider</t>
+          <t>Marco Silva Gottschalk</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>mariapaulacruzschneider@gmail.com</t>
+          <t>marco.gottschalk@yahoo.com</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MARIA THEREZA SCHMITT MESQUITA</t>
+          <t>Marcos Barbeitos</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>tecaschmittmesquita@gmail.com</t>
+          <t>msbarbeitos@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Maria Ursini Alves de Lima</t>
+          <t>Maria Clara Irumé</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>mariaursinialves@gmail.com</t>
+          <t>irumemcf@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mariana Mira Vasconcellos</t>
+          <t>Maria Luiza Petzl-Erler</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>marimiravasc@gmail.com</t>
+          <t>mlperler@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Mariana Fonseca Rossi</t>
+          <t>Maria Alves Napolitani</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>mfonsecarossi@gmail.com</t>
+          <t>napolitanima@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Mario Jardim Cupello</t>
+          <t>Maria Paula Cruz Schneider</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>mcupello@hotmail.com</t>
+          <t>mariapaulacruzschneider@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Martin Lindsey Christoffersen</t>
+          <t>MARIA THEREZA SCHMITT MESQUITA</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>martinlc.ufpb@gmail.com</t>
+          <t>tecaschmittmesquita@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Matheus M. A. Salles</t>
+          <t>Maria Ursini Alves de Lima</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>matheusm.salles@hotmail.com</t>
+          <t>mariaursinialves@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Matheus Sthanley Ferreira Firme</t>
+          <t>Mariana Mira Vasconcellos</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>fmatheuspba@gmail.com</t>
+          <t>marimiravasc@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Matheus Ganiko Dutra</t>
+          <t>Profa. Dra. Mariana Freitas Nery</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ganiko.dutra@usp.br</t>
+          <t>mariananery@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Mayara Pereira Neves</t>
+          <t>Mariana Fonseca Rossi</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>mayara-nevesbio@hotmail.com</t>
+          <t>mfonsecarossi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Melissa Bars Closel</t>
+          <t>Mario Jardim Cupello</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>melissabars@gmail.com</t>
+          <t>mcupello@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Miguel Godinho Alvares</t>
+          <t>Martin Lindsey Christoffersen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>miguelgodinhoalvares@gmail.com</t>
+          <t>martinlc.ufpb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Millke Jasmine Arminini Morales</t>
+          <t>Matheus M. A. Salles</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>millke.jasmine@gmail.com</t>
+          <t>matheusm.salles@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Natália dos Santos</t>
+          <t>Matheus Sthanley Ferreira Firme</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>n.santos97@unesp.br</t>
+          <t>fmatheuspba@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Natália Skueresky</t>
+          <t>Matheus Ganiko Dutra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>natiisoares@hotmail.com</t>
+          <t>ganiko.dutra@usp.br</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Nathan Graia Ferreira</t>
+          <t>Mayara Pereira Neves</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>n249472@dac.unicamp.br</t>
+          <t>mayara-nevesbio@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Nelson J.R. Fagundes</t>
+          <t>Melissa Bars Closel</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>nelson.fagundes@ufrgs.br</t>
+          <t>melissabars@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Nicolle Souza Leto</t>
+          <t>Miguel Godinho Alvares</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>letonicolle@gmail.com</t>
+          <t>miguelgodinhoalvares@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Nilda Maria Diniz Rojas</t>
+          <t>Millke Jasmine Arminini Morales</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>niddiniz@unb.br</t>
+          <t>millke.jasmine@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Patricia Sanae Sujii</t>
+          <t>Natália dos Santos</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sujiips@gmail.com</t>
+          <t>n.santos97@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ana Paula Assis</t>
+          <t>Natália Skueresky</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>paulaassis@ib.usp.br</t>
+          <t>natiisoares@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Paulo Aecyo Francisco da Silva</t>
+          <t>Nathan Graia Ferreira</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>pauloaecyo_1997@hotmail.com</t>
+          <t>n249472@dac.unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Paulo Henrique Mueller</t>
+          <t>Nelson J.R. Fagundes</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>profmueller@gmail.com</t>
+          <t>nelson.fagundes@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Pedro Augusto Cardoso Amaral</t>
+          <t>Nicolle Souza Leto</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>pedro20amaral@gmail.com</t>
+          <t>letonicolle@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Pedro Nicésio do Amaral</t>
+          <t>Nilda Maria Diniz Rojas</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>pedronamaral@usp.br</t>
+          <t>niddiniz@unb.br</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Pedro L. Godoy</t>
+          <t>Patricia Sanae Sujii</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>pedrolorenagodoy@gmail.com</t>
+          <t>sujiips@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Pedro Paulo Goulart Taucci</t>
+          <t>Ana Paula Assis</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>pedrotaucce@gmail.com</t>
+          <t>paulaassis@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Rafael Fernandes Barduzzi</t>
+          <t>Paulo Aecyo Francisco da Silva</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>rfbarduzzi@gmail.com</t>
+          <t>pauloaecyo_1997@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RAFAEL FILGUEIRA JORGE</t>
+          <t>Paulo Henrique Mueller</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>rafajorgebio@gmail.com</t>
+          <t>profmueller@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Rafael Félix de Magalhães</t>
+          <t>Pedro Augusto Cardoso Amaral</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>rafaelmagalhaes@ufsj.edu.br</t>
+          <t>pedro20amaral@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Rafaela Velloso Missagia</t>
+          <t>Pedro Nicésio do Amaral</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>rafaelamissagia@gmail.com</t>
+          <t>pedronamaral@usp.br</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Ramon Moreira Fernandes</t>
+          <t>Pedro L. Godoy</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ramonmf360@gmail.com</t>
+          <t>pedrolorenagodoy@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Renan Maestri</t>
+          <t>Pedro Paulo Goulart Taucci</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>renanmaestri@gmail.com</t>
+          <t>pedrotaucce@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Renata Pirani</t>
+          <t>Rafael Fernandes Barduzzi</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>renatampirani@gmail.com</t>
+          <t>rfbarduzzi@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ricardo Lehtonen Rodrigues Souza</t>
+          <t>RAFAEL FILGUEIRA JORGE</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>lehtonen@ufpr.br</t>
+          <t>rafajorgebio@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Roberto Ferreira Artoni</t>
+          <t>Rafael Félix de Magalhães</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>rfartoni@gmail.com</t>
+          <t>rafaelmagalhaes@ufsj.edu.br</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Rodrigo Augusto Torres</t>
+          <t>Rafaela Velloso Missagia</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>rodrigotorres@utfpr.edu.br</t>
+          <t>rafaelamissagia@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Rodrigo Barbosa Gonçalves</t>
+          <t>Ramon Moreira Fernandes</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>goncalvesrb@gmail.com</t>
+          <t>ramonmf360@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RODRIGO NUNES-DA-FONSECA</t>
+          <t>Renan Maestri</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>rodrigo.nunes.da.fonseca@gmail.com</t>
+          <t>renanmaestri@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Rodrigo Zeni</t>
+          <t>Renata Pirani</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>rodrigo-zeni@outlook.com.br</t>
+          <t>renatampirani@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Rosana Tidon</t>
+          <t>Ricardo Lehtonen Rodrigues Souza</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>rotidon@gmail.com</t>
+          <t>lehtonen@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sandra Reinales</t>
+          <t>Roberto Ferreira Artoni</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>spreinalesl@gmail.com</t>
+          <t>rfartoni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Sergio Russo Matioli</t>
+          <t>Rodrigo Augusto Torres</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>srmatiol@ib.usp.br</t>
+          <t>rodrigotorres@utfpr.edu.br</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SERGIO NASCIMENTO STAMPAR</t>
+          <t>Rodrigo Barbosa Gonçalves</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>sergio.stampar@unesp.br</t>
+          <t>goncalvesrb@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Suzana Alcantara</t>
+          <t>RODRIGO NUNES-DA-FONSECA</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>suzana.alcantara@ufsc.br</t>
+          <t>rodrigo.nunes.da.fonseca@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Talita Helen Bombardelli Gomig</t>
+          <t>Rodrigo Zeni</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>talitahbg@ufpr.br</t>
+          <t>rodrigo-zeni@outlook.com.br</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Tami Mott</t>
+          <t>Rosana Tidon</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>tami.mott@icbs.ufal.br</t>
+          <t>rotidon@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Thais Helena Condez</t>
+          <t>Sandra Reinales</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>thacondez@gmail.com</t>
+          <t>spreinalesl@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Thaís Barreto Guedes</t>
+          <t>Sávio Torres de Farias</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>thaisbguedes@yahoo.com.br</t>
+          <t>stfarias@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Thales Henrique Dias Leandro</t>
+          <t>Sergio Russo Matioli</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>thaleshdias@gmail.com</t>
+          <t>srmatiol@ib.usp.br</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Thannya Nascimento Soares</t>
+          <t>SERGIO NASCIMENTO STAMPAR</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>tnsoares@ufg.br</t>
+          <t>sergio.stampar@unesp.br</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Anna Theresa De Souza Liberal</t>
+          <t>Suzana Alcantara</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>theresaliberal@gmail.com</t>
+          <t>suzana.alcantara@ufsc.br</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Thiago Jose de Carvalho Andre</t>
+          <t>Talita Helen Bombardelli Gomig</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>thiago.andre@unb.br</t>
+          <t>talitahbg@ufpr.br</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Thieres Tayroni Martins da Silva</t>
+          <t>Tami Mott</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>thierestayroni@gmail.com</t>
+          <t>tami.mott@icbs.ufal.br</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Tiago Bosisio Quental</t>
+          <t>Thais Helena Condez</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>tbquental@usp.br</t>
+          <t>thacondez@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Dra. Tiana Kohlsdorf</t>
+          <t>Thaís Barreto Guedes</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>tiana@usp.br</t>
+          <t>thaisbguedes@yahoo.com.br</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Ubiratã Ferreira Souza</t>
+          <t>Thales Henrique Dias Leandro</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ubirataferreirasouza@gmail.com</t>
+          <t>thaleshdias@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Vera Nisaka Solferini</t>
+          <t>Thannya Nascimento Soares</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>veras@unicamp.br</t>
+          <t>tnsoares@ufg.br</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Vera Lucia da Silva Valente Gaiesky</t>
+          <t>Anna Theresa De Souza Liberal</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>vera.gaiesky@ufrgs.br</t>
+          <t>theresaliberal@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Victor Alberto Tagliacollo</t>
+          <t>Thiago Jose de Carvalho Andre</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>vatagliacollo@gmail.com</t>
+          <t>thiago.andre@unb.br</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Vinícius José Carvalho Reis</t>
+          <t>Thieres Tayroni Martins da Silva</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>carvalhvinicius@gmail.com</t>
+          <t>thierestayroni@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Vinicius Delgado da Rocha</t>
+          <t>Tiago Bosisio Quental</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>viniciusdelrocha@gmail.com</t>
+          <t>tbquental@usp.br</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Vitória Infran De Morais</t>
+          <t>Dra. Tiana Kohlsdorf</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>vitoria.infran@ufms.br</t>
+          <t>tiana@usp.br</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Waldir Miron</t>
+          <t>Ubiratã Ferreira Souza</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>waldirmbf@gmail.com</t>
+          <t>ubirataferreirasouza@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Wanderley Dantas dos Santos</t>
+          <t>Vera Nisaka Solferini</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>wdsantos@uem.br</t>
+          <t>veras@unicamp.br</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Welignton Clarindo</t>
+          <t>Vera Lucia da Silva Valente Gaiesky</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>well.clarindo@ufv.br</t>
+          <t>vera.gaiesky@ufrgs.br</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
+          <t>Victor Alberto Tagliacollo</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>vatagliacollo@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Vinicius Gross</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>familiagross0@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Vinícius José Carvalho Reis</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>carvalhvinicius@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Vinicius Delgado da Rocha</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>viniciusdelrocha@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Vitória Infran De Morais</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>vitoria.infran@ufms.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Waldir Miron</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>waldirmbf@gmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Wanderley Dantas dos Santos</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>wdsantos@uem.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Welignton Clarindo</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>well.clarindo@ufv.br</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
           <t>Weverton dos Santos Azevedo</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>weverton.azevedo@hotmail.com</t>
         </is>
